--- a/myapp/files/test/dunn_occurrence_res.xlsx
+++ b/myapp/files/test/dunn_occurrence_res.xlsx
@@ -29,34 +29,34 @@
     <t xml:space="preserve">admi - care</t>
   </si>
   <si>
-    <t xml:space="preserve">0.599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
+    <t xml:space="preserve">0.0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1367</t>
   </si>
   <si>
     <t xml:space="preserve">admi - mana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133</t>
+    <t xml:space="preserve">0.0586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5864</t>
   </si>
   <si>
     <t xml:space="preserve">care - mana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591</t>
+    <t xml:space="preserve">0.9067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0000</t>
   </si>
   <si>
     <t xml:space="preserve">admi - medi</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;0.001</t>
+    <t xml:space="preserve">&lt;0.0001</t>
   </si>
   <si>
     <t xml:space="preserve">care - medi</t>
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.525181026882299</v>
+        <v>2.46579559271661</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.47433086346449</v>
+        <v>1.89089919385013</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.88759056700053</v>
+        <v>-0.117160459723425</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -467,7 +467,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-15.6262250313764</v>
+        <v>-9.04937349734516</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -481,7 +481,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.8181900903298</v>
+        <v>-10.2813726364275</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -495,7 +495,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>-14.7982853546445</v>
+        <v>-8.9704356916864</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -509,7 +509,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.0509669883081</v>
+        <v>-5.23150056249399</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.92129327875459</v>
+        <v>-7.11715243511619</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -537,7 +537,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.1643434165316</v>
+        <v>-5.53126510504712</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -551,7 +551,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>8.71146211845297</v>
+        <v>5.99540097785481</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
